--- a/data/trans_orig/P34D1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39CC16E0-07F2-418F-8B56-C992FBFE81CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D428D210-CAB6-4B92-AB9E-5A4E1C58BCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{971B2548-8297-4324-AAEB-1841DBF4CA39}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDB3C27-4327-4266-AEF6-E8E1EC9AC454}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="477">
   <si>
     <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2015 (Tasa respuesta: 9,54%)</t>
   </si>
@@ -72,10 +72,10 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
   </si>
   <si>
     <t>5,23%</t>
@@ -84,1369 +84,1390 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,5%</t>
+    <t>23,2%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>17,61%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>26,26%</t>
+    <t>26,18%</t>
   </si>
   <si>
     <t>14,19%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>11,3%</t>
   </si>
   <si>
-    <t>34,97%</t>
+    <t>36,26%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>10,46%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>30,12%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>28,71%</t>
   </si>
   <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>16,98%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016B23F-C76D-4ABF-A8C8-F59407DE8C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EF2582-DD53-4DE6-A697-CFF6DC10D688}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2150,13 +2171,13 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2165,13 +2186,13 @@
         <v>2065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2207,13 @@
         <v>6036</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2201,13 +2222,13 @@
         <v>5233</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2216,13 +2237,13 @@
         <v>11269</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2258,13 @@
         <v>5311</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -2252,13 +2273,13 @@
         <v>3071</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2267,13 +2288,13 @@
         <v>8382</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2309,13 @@
         <v>2862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2303,13 +2324,13 @@
         <v>4129</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2318,10 +2339,10 @@
         <v>6991</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>65</v>
@@ -2515,7 +2536,7 @@
         <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -2524,13 +2545,13 @@
         <v>92692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2566,13 @@
         <v>35464</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -2560,13 +2581,13 @@
         <v>10290</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -2575,13 +2596,13 @@
         <v>45754</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2617,13 @@
         <v>75709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2611,13 +2632,13 @@
         <v>37231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2626,13 +2647,13 @@
         <v>112940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2668,13 @@
         <v>64520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2662,13 +2683,13 @@
         <v>22658</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2677,13 +2698,13 @@
         <v>87178</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2719,13 @@
         <v>54890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2713,13 +2734,13 @@
         <v>7204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -2728,13 +2749,13 @@
         <v>62095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2811,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -2802,13 +2823,13 @@
         <v>5467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2817,13 +2838,13 @@
         <v>1562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2832,13 +2853,13 @@
         <v>7028</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2874,13 @@
         <v>3051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2868,13 +2889,13 @@
         <v>884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2883,13 +2904,13 @@
         <v>3935</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2925,13 @@
         <v>20620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2919,13 +2940,13 @@
         <v>3085</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -2934,13 +2955,13 @@
         <v>23706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2976,13 @@
         <v>13234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2970,13 +2991,13 @@
         <v>4992</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -2985,13 +3006,13 @@
         <v>18226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3027,13 @@
         <v>20851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3021,13 +3042,13 @@
         <v>17303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -3036,13 +3057,13 @@
         <v>38154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3078,13 @@
         <v>22622</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3072,13 +3093,13 @@
         <v>11068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3087,13 +3108,13 @@
         <v>33690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3129,13 @@
         <v>15939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3123,13 +3144,13 @@
         <v>9100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3138,13 +3159,13 @@
         <v>25039</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3233,13 @@
         <v>31041</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3227,13 +3248,13 @@
         <v>7243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -3242,13 +3263,13 @@
         <v>38284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3284,13 @@
         <v>24755</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3278,13 +3299,13 @@
         <v>7884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3293,13 +3314,13 @@
         <v>32640</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3335,13 @@
         <v>105764</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -3329,13 +3350,13 @@
         <v>23144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>123</v>
@@ -3344,13 +3365,13 @@
         <v>128908</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3386,13 @@
         <v>49758</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -3380,13 +3401,13 @@
         <v>16288</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -3395,13 +3416,13 @@
         <v>66046</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3437,13 @@
         <v>102595</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>60</v>
@@ -3431,13 +3452,13 @@
         <v>59768</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>159</v>
@@ -3446,13 +3467,13 @@
         <v>162363</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,10 +3491,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H33" s="7">
         <v>37</v>
@@ -3482,13 +3503,13 @@
         <v>36798</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M33" s="7">
         <v>124</v>
@@ -3497,13 +3518,13 @@
         <v>129251</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3539,13 @@
         <v>73692</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -3533,13 +3554,13 @@
         <v>20433</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M34" s="7">
         <v>83</v>
@@ -3548,13 +3569,13 @@
         <v>94125</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3631,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD4844F-EF9B-427D-9CBB-63B97AAE7B97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1AB297-82FA-4F3F-B2A6-B4DFEB58FEC7}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3646,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3753,13 +3774,13 @@
         <v>3080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3768,13 +3789,13 @@
         <v>508</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3783,13 +3804,13 @@
         <v>3588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3825,13 @@
         <v>4708</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3822,10 +3843,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3834,13 +3855,13 @@
         <v>4708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3876,13 @@
         <v>7916</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3870,13 +3891,13 @@
         <v>510</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3885,13 +3906,13 @@
         <v>8425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,10 +3930,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3921,13 +3942,13 @@
         <v>7510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3936,13 +3957,13 @@
         <v>7510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3978,13 @@
         <v>7497</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3972,13 +3993,13 @@
         <v>3676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -3987,13 +4008,13 @@
         <v>11172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4029,13 @@
         <v>2371</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4023,13 +4044,13 @@
         <v>1738</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4038,13 +4059,13 @@
         <v>4108</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,10 +4083,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4074,13 +4095,13 @@
         <v>610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4089,13 +4110,13 @@
         <v>5152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4184,13 @@
         <v>14014</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4178,13 +4199,13 @@
         <v>4179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -4193,13 +4214,13 @@
         <v>18193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4235,13 @@
         <v>19098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4229,13 +4250,13 @@
         <v>9581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4244,13 +4265,13 @@
         <v>28679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4286,13 @@
         <v>116944</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -4280,13 +4301,13 @@
         <v>39500</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -4295,13 +4316,13 @@
         <v>156444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4337,13 @@
         <v>52924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>175</v>
+        <v>328</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>327</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -4331,13 +4352,13 @@
         <v>17970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -4346,13 +4367,13 @@
         <v>70894</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4388,13 @@
         <v>128481</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4382,13 +4403,13 @@
         <v>34479</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -4397,13 +4418,13 @@
         <v>162959</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4439,13 @@
         <v>69810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4433,13 +4454,13 @@
         <v>24720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4448,13 +4469,13 @@
         <v>94530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4490,13 @@
         <v>41734</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4484,13 +4505,13 @@
         <v>11611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -4499,13 +4520,13 @@
         <v>53345</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4582,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -4573,13 +4594,13 @@
         <v>5999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4588,13 +4609,13 @@
         <v>6188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4603,13 +4624,13 @@
         <v>12187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4645,13 @@
         <v>12150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4639,13 +4660,13 @@
         <v>2094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>316</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -4654,13 +4675,13 @@
         <v>14245</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4696,13 @@
         <v>22371</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4690,13 +4711,13 @@
         <v>20010</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -4705,13 +4726,13 @@
         <v>42381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,13 +4747,13 @@
         <v>30440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4741,13 +4762,13 @@
         <v>10618</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>386</v>
+        <v>209</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4756,13 +4777,13 @@
         <v>41058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,13 +4798,13 @@
         <v>54968</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -4792,13 +4813,13 @@
         <v>27350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -4807,13 +4828,13 @@
         <v>82319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,13 +4849,13 @@
         <v>30195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4843,13 +4864,13 @@
         <v>22833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -4858,13 +4879,13 @@
         <v>53028</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4900,13 @@
         <v>14558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4894,13 +4915,13 @@
         <v>3911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4909,13 +4930,13 @@
         <v>18470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,13 +5004,13 @@
         <v>23093</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -4998,13 +5019,13 @@
         <v>10875</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>93</v>
+        <v>422</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5013,13 +5034,13 @@
         <v>33968</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,10 +5058,10 @@
         <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5049,13 +5070,13 @@
         <v>11675</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -5064,13 +5085,13 @@
         <v>47632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5106,13 @@
         <v>147230</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -5100,13 +5121,13 @@
         <v>60020</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M30" s="7">
         <v>187</v>
@@ -5115,13 +5136,13 @@
         <v>207250</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5157,13 @@
         <v>83364</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -5151,13 +5172,13 @@
         <v>36098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="M31" s="7">
         <v>90</v>
@@ -5166,13 +5187,13 @@
         <v>119462</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5208,13 @@
         <v>190946</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H32" s="7">
         <v>75</v>
@@ -5202,13 +5223,13 @@
         <v>65504</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M32" s="7">
         <v>221</v>
@@ -5217,13 +5238,13 @@
         <v>256450</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5259,13 @@
         <v>102376</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -5253,13 +5274,13 @@
         <v>49290</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M33" s="7">
         <v>141</v>
@@ -5268,13 +5289,13 @@
         <v>151666</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5310,13 @@
         <v>60835</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -5304,13 +5325,13 @@
         <v>16132</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>354</v>
+        <v>472</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>30</v>
+        <v>473</v>
       </c>
       <c r="M34" s="7">
         <v>64</v>
@@ -5319,13 +5340,13 @@
         <v>76967</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,7 +5388,7 @@
         <v>780</v>
       </c>
       <c r="N35" s="7">
-        <v>893395</v>
+        <v>893394</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>66</v>
@@ -5381,7 +5402,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34D1-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D428D210-CAB6-4B92-AB9E-5A4E1C58BCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3DEE2DB-B2D9-4D19-9355-FA630585A885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EDB3C27-4327-4266-AEF6-E8E1EC9AC454}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AA1A2A3-662B-4ABD-A2B6-C55A4E4E2851}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="477">
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2015 (Tasa respuesta: 9,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="473">
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2016 (Tasa respuesta: 9,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -72,10 +72,10 @@
     <t>19,26%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>5,23%</t>
@@ -84,1278 +84,1272 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
     <t>19,92%</t>
   </si>
   <si>
@@ -1419,9 +1413,6 @@
     <t>15,9%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
     <t>19,7%</t>
   </si>
   <si>
@@ -1444,9 +1435,6 @@
   </si>
   <si>
     <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -1879,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EF2582-DD53-4DE6-A697-CFF6DC10D688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7553AC3D-88AC-4840-B120-D5DCA4006FB2}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,13 +2159,13 @@
         <v>1006</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2186,13 +2174,13 @@
         <v>2065</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2195,13 @@
         <v>6036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -2222,13 +2210,13 @@
         <v>5233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -2237,13 +2225,13 @@
         <v>11269</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2246,13 @@
         <v>5311</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -2273,13 +2261,13 @@
         <v>3071</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -2288,13 +2276,13 @@
         <v>8382</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2297,13 @@
         <v>2862</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2324,13 +2312,13 @@
         <v>4129</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -2339,13 +2327,13 @@
         <v>6991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2348,13 @@
         <v>40895</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -2375,13 +2363,13 @@
         <v>17375</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -2390,18 +2378,18 @@
         <v>58270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -2413,13 +2401,13 @@
         <v>17697</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -2428,13 +2416,13 @@
         <v>4772</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -2443,13 +2431,13 @@
         <v>22469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,13 +2452,13 @@
         <v>14503</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2479,13 +2467,13 @@
         <v>5936</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -2494,13 +2482,13 @@
         <v>20439</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2503,13 @@
         <v>74596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -2530,13 +2518,13 @@
         <v>18096</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -2545,13 +2533,13 @@
         <v>92692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2554,13 @@
         <v>35464</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -2581,13 +2569,13 @@
         <v>10290</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -2596,13 +2584,13 @@
         <v>45754</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2605,13 @@
         <v>75709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -2632,13 +2620,13 @@
         <v>37231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2647,13 +2635,13 @@
         <v>112940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2668,13 +2656,13 @@
         <v>64520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2683,13 +2671,13 @@
         <v>22658</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -2698,13 +2686,13 @@
         <v>87178</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2707,13 @@
         <v>54890</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2734,13 +2722,13 @@
         <v>7204</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -2749,13 +2737,13 @@
         <v>62095</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2758,13 @@
         <v>337380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>106</v>
@@ -2785,13 +2773,13 @@
         <v>106187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>421</v>
@@ -2800,18 +2788,18 @@
         <v>443567</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -2823,13 +2811,13 @@
         <v>5467</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2838,13 +2826,13 @@
         <v>1562</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -2853,13 +2841,13 @@
         <v>7028</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2862,13 @@
         <v>3051</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2889,13 +2877,13 @@
         <v>884</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -2904,13 +2892,13 @@
         <v>3935</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2913,13 @@
         <v>20620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2940,10 +2928,10 @@
         <v>3085</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
@@ -2979,10 +2967,10 @@
         <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -2991,13 +2979,13 @@
         <v>4992</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -3006,13 +2994,13 @@
         <v>18226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3015,13 @@
         <v>20851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -3042,13 +3030,13 @@
         <v>17303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -3057,13 +3045,13 @@
         <v>38154</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3066,13 @@
         <v>22622</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3093,13 +3081,13 @@
         <v>11068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3108,13 +3096,13 @@
         <v>33690</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3117,13 @@
         <v>15939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -3144,13 +3132,13 @@
         <v>9100</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>23</v>
@@ -3159,13 +3147,13 @@
         <v>25039</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3168,13 @@
         <v>101783</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H27" s="7">
         <v>47</v>
@@ -3195,13 +3183,13 @@
         <v>47995</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M27" s="7">
         <v>143</v>
@@ -3210,13 +3198,13 @@
         <v>149778</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3221,13 @@
         <v>31041</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3248,13 +3236,13 @@
         <v>7243</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -3263,13 +3251,13 @@
         <v>38284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3272,13 @@
         <v>24755</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3299,13 +3287,13 @@
         <v>7884</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3314,13 +3302,13 @@
         <v>32640</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3323,13 @@
         <v>105764</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -3350,13 +3338,13 @@
         <v>23144</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>123</v>
@@ -3365,13 +3353,13 @@
         <v>128908</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3374,13 @@
         <v>49758</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -3401,13 +3389,13 @@
         <v>16288</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -3416,13 +3404,13 @@
         <v>66046</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3425,13 @@
         <v>102595</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>19</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>60</v>
@@ -3452,13 +3440,13 @@
         <v>59768</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>159</v>
@@ -3467,13 +3455,13 @@
         <v>162363</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3479,10 @@
         <v>10</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H33" s="7">
         <v>37</v>
@@ -3503,13 +3491,13 @@
         <v>36798</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M33" s="7">
         <v>124</v>
@@ -3518,13 +3506,13 @@
         <v>129251</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3527,13 @@
         <v>73692</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -3554,13 +3542,13 @@
         <v>20433</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M34" s="7">
         <v>83</v>
@@ -3569,13 +3557,13 @@
         <v>94125</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3578,13 @@
         <v>480058</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H35" s="7">
         <v>169</v>
@@ -3605,13 +3593,13 @@
         <v>171558</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M35" s="7">
         <v>618</v>
@@ -3620,18 +3608,18 @@
         <v>651616</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3650,7 +3638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1AB297-82FA-4F3F-B2A6-B4DFEB58FEC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD224CB4-446F-4F70-A40B-885FC55B6B31}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3667,7 +3655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3774,10 +3762,10 @@
         <v>3080</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>255</v>
@@ -3804,13 +3792,13 @@
         <v>3588</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3813,13 @@
         <v>4708</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3843,10 +3831,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3855,13 +3843,13 @@
         <v>4708</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3864,13 @@
         <v>7916</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -3891,13 +3879,13 @@
         <v>510</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -3906,13 +3894,13 @@
         <v>8425</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,10 +3918,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3942,13 +3930,13 @@
         <v>7510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3957,13 +3945,13 @@
         <v>7510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3966,13 @@
         <v>7497</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -3993,13 +3981,13 @@
         <v>3676</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4008,13 +3996,13 @@
         <v>11172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4017,13 @@
         <v>2371</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4044,13 +4032,13 @@
         <v>1738</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4059,13 +4047,13 @@
         <v>4108</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +4071,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4095,13 +4083,13 @@
         <v>610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4110,13 +4098,13 @@
         <v>5152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4119,13 @@
         <v>30113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4146,13 +4134,13 @@
         <v>14551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -4161,18 +4149,18 @@
         <v>44664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5">
         <v>7</v>
@@ -4184,13 +4172,13 @@
         <v>14014</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4199,13 +4187,13 @@
         <v>4179</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
@@ -4214,13 +4202,13 @@
         <v>18193</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4223,13 @@
         <v>19098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4250,13 +4238,13 @@
         <v>9581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4265,13 +4253,13 @@
         <v>28679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>315</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4274,13 @@
         <v>116944</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>45</v>
@@ -4301,13 +4289,13 @@
         <v>39500</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M14" s="7">
         <v>134</v>
@@ -4316,13 +4304,13 @@
         <v>156444</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4325,13 @@
         <v>52924</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -4352,13 +4340,13 @@
         <v>17970</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -4367,13 +4355,13 @@
         <v>70894</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4376,13 @@
         <v>128481</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -4403,13 +4391,13 @@
         <v>34479</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -4418,13 +4406,13 @@
         <v>162959</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4427,13 @@
         <v>69810</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4454,13 +4442,13 @@
         <v>24720</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -4469,13 +4457,13 @@
         <v>94530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4478,13 @@
         <v>41734</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -4505,13 +4493,13 @@
         <v>11611</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -4520,13 +4508,13 @@
         <v>53345</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4529,13 @@
         <v>443006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -4556,13 +4544,13 @@
         <v>142039</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -4571,18 +4559,18 @@
         <v>585044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -4594,13 +4582,13 @@
         <v>5999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4609,13 +4597,13 @@
         <v>6188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -4624,13 +4612,13 @@
         <v>12187</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4633,13 @@
         <v>12150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4660,13 +4648,13 @@
         <v>2094</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M21" s="7">
         <v>12</v>
@@ -4675,13 +4663,13 @@
         <v>14245</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,13 +4684,13 @@
         <v>22371</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -4711,13 +4699,13 @@
         <v>20010</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M22" s="7">
         <v>43</v>
@@ -4726,13 +4714,13 @@
         <v>42381</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4735,13 @@
         <v>30440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4762,13 +4750,13 @@
         <v>10618</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -4777,13 +4765,13 @@
         <v>41058</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4786,13 @@
         <v>54968</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -4813,13 +4801,13 @@
         <v>27350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -4828,13 +4816,13 @@
         <v>82319</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4837,13 @@
         <v>30195</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -4864,13 +4852,13 @@
         <v>22833</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>215</v>
+        <v>401</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -4879,13 +4867,13 @@
         <v>53028</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4888,13 @@
         <v>14558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -4915,13 +4903,13 @@
         <v>3911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4930,13 +4918,13 @@
         <v>18470</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4939,13 @@
         <v>170682</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H27" s="7">
         <v>107</v>
@@ -4966,13 +4954,13 @@
         <v>93004</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M27" s="7">
         <v>253</v>
@@ -4981,13 +4969,13 @@
         <v>263687</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4992,13 @@
         <v>23093</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -5019,13 +5007,13 @@
         <v>10875</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>35</v>
@@ -5034,13 +5022,13 @@
         <v>33968</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5043,13 @@
         <v>35957</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -5070,13 +5058,13 @@
         <v>11675</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M29" s="7">
         <v>42</v>
@@ -5085,13 +5073,13 @@
         <v>47632</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5094,13 @@
         <v>147230</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -5121,13 +5109,13 @@
         <v>60020</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M30" s="7">
         <v>187</v>
@@ -5136,13 +5124,13 @@
         <v>207250</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>15</v>
+        <v>436</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5145,13 @@
         <v>83364</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -5172,13 +5160,13 @@
         <v>36098</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="M31" s="7">
         <v>90</v>
@@ -5187,13 +5175,13 @@
         <v>119462</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>190946</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H32" s="7">
         <v>75</v>
@@ -5223,13 +5211,13 @@
         <v>65504</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M32" s="7">
         <v>221</v>
@@ -5238,13 +5226,13 @@
         <v>256450</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5247,13 @@
         <v>102376</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>460</v>
+        <v>179</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H33" s="7">
         <v>55</v>
@@ -5274,13 +5262,13 @@
         <v>49290</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M33" s="7">
         <v>141</v>
@@ -5289,13 +5277,13 @@
         <v>151666</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5298,13 @@
         <v>60835</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>469</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -5325,13 +5313,13 @@
         <v>16132</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M34" s="7">
         <v>64</v>
@@ -5340,13 +5328,13 @@
         <v>76967</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5349,13 @@
         <v>643801</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H35" s="7">
         <v>271</v>
@@ -5376,13 +5364,13 @@
         <v>249594</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M35" s="7">
         <v>780</v>
@@ -5391,18 +5379,18 @@
         <v>893394</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
